--- a/project/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/project/Phase 1/Sprint1/Burndown chart.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Desktop\ES\Projects\SE2122-57672-58175-57957-58210-57911\project\Phase 1\Sprint1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF37CCCE-805A-436F-82B4-C8F4EB7EE1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Target Hours Left</t>
+  </si>
+  <si>
+    <t>Real Hours Left</t>
+  </si>
+  <si>
+    <t>João Palma</t>
+  </si>
+  <si>
+    <t>João Reis</t>
+  </si>
+  <si>
+    <t>João Santos</t>
+  </si>
+  <si>
+    <t>Lucas Lobo</t>
+  </si>
+  <si>
+    <t>Pedro Gouveia</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +80,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +424,583 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E7" s="4">
+        <v>44512</v>
+      </c>
+      <c r="F7" s="2">
+        <v>95</v>
+      </c>
+      <c r="G7" s="2">
+        <v>95</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E8" s="5">
+        <v>44513</v>
+      </c>
+      <c r="F8" s="2">
+        <v>90</v>
+      </c>
+      <c r="G8" s="2">
+        <v>85</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E9" s="5">
+        <v>44515</v>
+      </c>
+      <c r="F9" s="2">
+        <v>85</v>
+      </c>
+      <c r="G9" s="2">
+        <v>85</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E10" s="5">
+        <v>44516</v>
+      </c>
+      <c r="F10" s="2">
+        <v>80</v>
+      </c>
+      <c r="G10" s="2">
+        <v>85</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E11" s="5">
+        <v>44517</v>
+      </c>
+      <c r="F11" s="2">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2">
+        <v>85</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E12" s="5">
+        <v>44518</v>
+      </c>
+      <c r="F12" s="2">
+        <v>70</v>
+      </c>
+      <c r="G12" s="2">
+        <v>85</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E13" s="5">
+        <v>44519</v>
+      </c>
+      <c r="F13" s="2">
+        <v>65</v>
+      </c>
+      <c r="G13" s="2">
+        <v>85</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="5">
+        <v>44520</v>
+      </c>
+      <c r="F14" s="2">
+        <v>60</v>
+      </c>
+      <c r="G14" s="2">
+        <v>81</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="5">
+        <v>44521</v>
+      </c>
+      <c r="F15" s="2">
+        <v>55</v>
+      </c>
+      <c r="G15" s="2">
+        <v>81</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="5">
+        <v>44522</v>
+      </c>
+      <c r="F16" s="2">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2">
+        <v>81</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E17" s="5">
+        <v>44523</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2">
+        <v>81</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E18" s="5">
+        <v>44524</v>
+      </c>
+      <c r="F18" s="2">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2">
+        <v>81</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E19" s="5">
+        <v>44525</v>
+      </c>
+      <c r="F19" s="2">
+        <v>35</v>
+      </c>
+      <c r="G19" s="2">
+        <v>81</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E20" s="5">
+        <v>44526</v>
+      </c>
+      <c r="F20" s="2">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2">
+        <v>81</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E21" s="5">
+        <v>44527</v>
+      </c>
+      <c r="F21" s="2">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2">
+        <v>81</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E22" s="5">
+        <v>44528</v>
+      </c>
+      <c r="F22" s="2">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>81</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E23" s="5">
+        <v>44529</v>
+      </c>
+      <c r="F23" s="2">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2">
+        <v>81</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E24" s="5">
+        <v>44530</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>81</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E25" s="5">
+        <v>44531</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>81</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E26" s="5">
+        <v>44532</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E27" s="5">
+        <v>44533</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E28" s="5">
+        <v>44534</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E29" s="5">
+        <v>44535</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E30" s="5">
+        <v>44536</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E31" s="6"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E32" s="6"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E33" s="6"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/project/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/project/Phase 1/Sprint1/Burndown chart.xlsx
@@ -1,18 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João\Desktop\bbbbb\project\Phase 1\Sprint1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC78959-3A8B-4B2B-A70C-4242C0488989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -54,8 +69,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +155,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -163,12 +188,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -190,7 +217,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$7:$J$31</c:f>
               <c:numCache>
-                <c:formatCode>dd/mmm</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44512</c:v>
@@ -354,6 +381,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2280-469A-8B0C-1BCD6669BC89}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -376,7 +409,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$7:$J$31</c:f>
               <c:numCache>
-                <c:formatCode>dd/mmm</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44512</c:v>
@@ -520,28 +553,42 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>70</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>64</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2280-469A-8B0C-1BCD6669BC89}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="97448704"/>
         <c:axId val="97451008"/>
       </c:lineChart>
@@ -550,19 +597,24 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd/mmm" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="97451008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="97451008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -585,9 +637,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="97448704"/>
         <c:crosses val="autoZero"/>
@@ -596,9 +650,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -625,7 +681,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -898,44 +960,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D1:R34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.08984375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.36328125" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:17">
+    <row r="1" spans="10:17" x14ac:dyDescent="0.25">
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="5" spans="10:17">
+    <row r="5" spans="10:17" x14ac:dyDescent="0.25">
       <c r="L5" s="6"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="10:17">
+    <row r="6" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="10:17">
+    <row r="7" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J7" s="4">
         <v>44512</v>
       </c>
@@ -988,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="10:17">
+    <row r="8" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J8" s="4">
         <v>44513</v>
       </c>
@@ -1015,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="10:17">
+    <row r="9" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J9" s="4">
         <v>44514</v>
       </c>
@@ -1023,7 +1085,7 @@
         <v>89</v>
       </c>
       <c r="L9" s="7">
-        <f t="shared" ref="L9:L31" si="0">L8-SUM(M9:Q9)</f>
+        <f t="shared" ref="L9:L30" si="0">L8-SUM(M9:Q9)</f>
         <v>85</v>
       </c>
       <c r="M9" s="2">
@@ -1042,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="10:17">
+    <row r="10" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J10" s="4">
         <v>44515</v>
       </c>
@@ -1069,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="10:17">
+    <row r="11" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J11" s="4">
         <v>44516</v>
       </c>
@@ -1096,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="10:17">
+    <row r="12" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J12" s="4">
         <v>44517</v>
       </c>
@@ -1123,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="10:17">
+    <row r="13" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J13" s="4">
         <v>44518</v>
       </c>
@@ -1150,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="10:17">
+    <row r="14" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J14" s="4">
         <v>44519</v>
       </c>
@@ -1165,13 +1227,15 @@
       <c r="N14" s="2">
         <v>2</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
       <c r="P14" s="2">
         <v>2</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="10:17">
+    <row r="15" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J15" s="4">
         <v>44520</v>
       </c>
@@ -1184,13 +1248,15 @@
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
       <c r="P15" s="7">
         <v>0</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="10:17">
+    <row r="16" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J16" s="4">
         <v>44521</v>
       </c>
@@ -1203,13 +1269,15 @@
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
       <c r="P16" s="7">
         <v>0</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="5:18">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J17" s="4">
         <v>44522</v>
       </c>
@@ -1222,13 +1290,15 @@
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
       <c r="P17" s="7">
         <v>2</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="5:18">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J18" s="4">
         <v>44523</v>
       </c>
@@ -1241,13 +1311,15 @@
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
       <c r="P18" s="7">
         <v>0</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="5:18">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J19" s="4">
         <v>44524</v>
       </c>
@@ -1260,13 +1332,15 @@
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
       <c r="P19" s="7">
         <v>2</v>
       </c>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="5:18">
+    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J20" s="4">
         <v>44525</v>
       </c>
@@ -1279,13 +1353,15 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
       <c r="P20" s="7">
         <v>1</v>
       </c>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="5:18">
+    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J21" s="4">
         <v>44526</v>
       </c>
@@ -1298,13 +1374,15 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
       <c r="P21" s="7">
         <v>1</v>
       </c>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="5:18">
+    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J22" s="4">
         <v>44527</v>
       </c>
@@ -1317,13 +1395,15 @@
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
       <c r="P22" s="2">
         <v>0</v>
       </c>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="5:18">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J23" s="4">
         <v>44528</v>
       </c>
@@ -1336,13 +1416,15 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
       <c r="P23" s="2">
         <v>0</v>
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="5:18">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J24" s="4">
         <v>44529</v>
       </c>
@@ -1355,13 +1437,15 @@
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
       <c r="P24" s="2">
         <v>0</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="5:18">
+    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J25" s="4">
         <v>44530</v>
       </c>
@@ -1374,13 +1458,15 @@
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
       <c r="P25" s="2">
         <v>0</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="5:18">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J26" s="4">
         <v>44531</v>
       </c>
@@ -1389,17 +1475,19 @@
       </c>
       <c r="L26" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="2">
+        <v>2</v>
+      </c>
       <c r="P26" s="2">
         <v>0</v>
       </c>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="5:18">
+    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J27" s="4">
         <v>44532</v>
       </c>
@@ -1408,17 +1496,19 @@
       </c>
       <c r="L27" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="2">
+        <v>2</v>
+      </c>
       <c r="P27" s="2">
         <v>0</v>
       </c>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="5:18">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J28" s="4">
         <v>44533</v>
       </c>
@@ -1427,17 +1517,19 @@
       </c>
       <c r="L28" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" s="2">
+        <v>3</v>
+      </c>
       <c r="P28" s="2">
         <v>0</v>
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="5:18">
+    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J29" s="4">
         <v>44534</v>
       </c>
@@ -1446,17 +1538,19 @@
       </c>
       <c r="L29" s="7">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" s="2">
+        <v>4</v>
+      </c>
       <c r="P29" s="2">
         <v>5</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="5:18">
+    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J30" s="4">
         <v>44535</v>
       </c>
@@ -1465,17 +1559,19 @@
       </c>
       <c r="L30" s="7">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" s="2">
+        <v>4</v>
+      </c>
       <c r="P30" s="2">
         <v>5</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="5:18">
+    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J31" s="4">
         <v>44536</v>
       </c>
@@ -1484,17 +1580,19 @@
       </c>
       <c r="L31" s="7">
         <f t="shared" ref="L31" si="1">L30-SUM(M31:Q31)</f>
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="O31" s="3">
+        <v>2</v>
+      </c>
       <c r="P31" s="3">
         <v>1</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="5:18">
+    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E32" s="5"/>
       <c r="M32" s="1">
         <f>SUM(M7:M31)</f>
@@ -1506,7 +1604,7 @@
       </c>
       <c r="O32" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" si="2"/>
@@ -1520,13 +1618,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="5:18">
+    <row r="33" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E33" s="5"/>
       <c r="R33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="5:18">
+    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
       <c r="R34" s="10">
         <f>95/5</f>

--- a/project/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/project/Phase 1/Sprint1/Burndown chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João\Desktop\bbbbb\project\Phase 1\Sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X530\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC78959-3A8B-4B2B-A70C-4242C0488989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD5FA9A7-04EF-493C-AF48-380950227754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -532,43 +532,43 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>73</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>71</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>68</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,34 +970,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="10:17" x14ac:dyDescent="0.3">
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="5" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="10:17" x14ac:dyDescent="0.3">
       <c r="L5" s="6"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J7" s="4">
         <v>44512</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J8" s="4">
         <v>44513</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J9" s="4">
         <v>44514</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J10" s="4">
         <v>44515</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J11" s="4">
         <v>44516</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J12" s="4">
         <v>44517</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J13" s="4">
         <v>44518</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J14" s="4">
         <v>44519</v>
       </c>
@@ -1233,9 +1233,11 @@
       <c r="P14" s="2">
         <v>2</v>
       </c>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J15" s="4">
         <v>44520</v>
       </c>
@@ -1254,9 +1256,11 @@
       <c r="P15" s="7">
         <v>0</v>
       </c>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J16" s="4">
         <v>44521</v>
       </c>
@@ -1275,9 +1279,11 @@
       <c r="P16" s="7">
         <v>0</v>
       </c>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J17" s="4">
         <v>44522</v>
       </c>
@@ -1296,9 +1302,11 @@
       <c r="P17" s="7">
         <v>2</v>
       </c>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J18" s="4">
         <v>44523</v>
       </c>
@@ -1317,9 +1325,11 @@
       <c r="P18" s="7">
         <v>0</v>
       </c>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J19" s="4">
         <v>44524</v>
       </c>
@@ -1328,7 +1338,7 @@
       </c>
       <c r="L19" s="7">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1338,9 +1348,11 @@
       <c r="P19" s="7">
         <v>2</v>
       </c>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J20" s="4">
         <v>44525</v>
       </c>
@@ -1349,7 +1361,7 @@
       </c>
       <c r="L20" s="7">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1359,9 +1371,11 @@
       <c r="P20" s="7">
         <v>1</v>
       </c>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J21" s="4">
         <v>44526</v>
       </c>
@@ -1370,7 +1384,7 @@
       </c>
       <c r="L21" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1380,9 +1394,11 @@
       <c r="P21" s="7">
         <v>1</v>
       </c>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J22" s="4">
         <v>44527</v>
       </c>
@@ -1391,7 +1407,7 @@
       </c>
       <c r="L22" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1401,9 +1417,11 @@
       <c r="P22" s="2">
         <v>0</v>
       </c>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J23" s="4">
         <v>44528</v>
       </c>
@@ -1412,7 +1430,7 @@
       </c>
       <c r="L23" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1422,9 +1440,11 @@
       <c r="P23" s="2">
         <v>0</v>
       </c>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J24" s="4">
         <v>44529</v>
       </c>
@@ -1433,7 +1453,7 @@
       </c>
       <c r="L24" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1443,9 +1463,11 @@
       <c r="P24" s="2">
         <v>0</v>
       </c>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J25" s="4">
         <v>44530</v>
       </c>
@@ -1454,7 +1476,7 @@
       </c>
       <c r="L25" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1464,9 +1486,11 @@
       <c r="P25" s="2">
         <v>0</v>
       </c>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J26" s="4">
         <v>44531</v>
       </c>
@@ -1475,7 +1499,7 @@
       </c>
       <c r="L26" s="7">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1485,9 +1509,11 @@
       <c r="P26" s="2">
         <v>0</v>
       </c>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J27" s="4">
         <v>44532</v>
       </c>
@@ -1496,7 +1522,7 @@
       </c>
       <c r="L27" s="7">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1506,9 +1532,11 @@
       <c r="P27" s="2">
         <v>0</v>
       </c>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J28" s="4">
         <v>44533</v>
       </c>
@@ -1517,7 +1545,7 @@
       </c>
       <c r="L28" s="7">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1527,9 +1555,11 @@
       <c r="P28" s="2">
         <v>0</v>
       </c>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J29" s="4">
         <v>44534</v>
       </c>
@@ -1538,7 +1568,7 @@
       </c>
       <c r="L29" s="7">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1548,9 +1578,11 @@
       <c r="P29" s="2">
         <v>5</v>
       </c>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q29" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J30" s="4">
         <v>44535</v>
       </c>
@@ -1559,7 +1591,7 @@
       </c>
       <c r="L30" s="7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1569,9 +1601,11 @@
       <c r="P30" s="2">
         <v>5</v>
       </c>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q30" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J31" s="4">
         <v>44536</v>
       </c>
@@ -1580,7 +1614,7 @@
       </c>
       <c r="L31" s="7">
         <f t="shared" ref="L31" si="1">L30-SUM(M31:Q31)</f>
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -1590,9 +1624,11 @@
       <c r="P31" s="3">
         <v>1</v>
       </c>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q31" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E32" s="5"/>
       <c r="M32" s="1">
         <f>SUM(M7:M31)</f>
@@ -1612,19 +1648,19 @@
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E33" s="5"/>
       <c r="R33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E34" s="5"/>
       <c r="R34" s="10">
         <f>95/5</f>

--- a/project/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/project/Phase 1/Sprint1/Burndown chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X530\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD5FA9A7-04EF-493C-AF48-380950227754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC9A3C0-7279-4CA7-A708-55D18723F7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="14610" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,8 +70,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -137,6 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,58 +526,58 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>69</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>65</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>47</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>33</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,34 +979,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="10:17" x14ac:dyDescent="0.25">
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="5" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="10:17" x14ac:dyDescent="0.25">
       <c r="L5" s="6"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J7" s="4">
         <v>44512</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J8" s="4">
         <v>44513</v>
       </c>
@@ -1077,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J9" s="4">
         <v>44514</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J10" s="4">
         <v>44515</v>
       </c>
@@ -1131,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J11" s="4">
         <v>44516</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J12" s="4">
         <v>44517</v>
       </c>
@@ -1185,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J13" s="4">
         <v>44518</v>
       </c>
@@ -1212,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J14" s="4">
         <v>44519</v>
       </c>
@@ -1221,9 +1230,11 @@
       </c>
       <c r="L14" s="7">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
       <c r="N14" s="2">
         <v>2</v>
       </c>
@@ -1237,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J15" s="4">
         <v>44520</v>
       </c>
@@ -1246,9 +1257,11 @@
       </c>
       <c r="L15" s="7">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2">
         <v>0</v>
@@ -1260,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J16" s="4">
         <v>44521</v>
       </c>
@@ -1269,9 +1282,11 @@
       </c>
       <c r="L16" s="7">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2">
         <v>0</v>
@@ -1283,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J17" s="4">
         <v>44522</v>
       </c>
@@ -1292,9 +1307,11 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2">
         <v>0</v>
@@ -1306,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J18" s="4">
         <v>44523</v>
       </c>
@@ -1315,9 +1332,11 @@
       </c>
       <c r="L18" s="7">
         <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M18" s="2">
+        <v>3</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2">
         <v>0</v>
@@ -1329,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J19" s="4">
         <v>44524</v>
       </c>
@@ -1338,9 +1357,11 @@
       </c>
       <c r="L19" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2">
         <v>0</v>
@@ -1352,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J20" s="4">
         <v>44525</v>
       </c>
@@ -1361,9 +1382,11 @@
       </c>
       <c r="L20" s="7">
         <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2">
         <v>0</v>
@@ -1375,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J21" s="4">
         <v>44526</v>
       </c>
@@ -1384,9 +1407,11 @@
       </c>
       <c r="L21" s="7">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="M21" s="2">
+        <v>2</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2">
         <v>0</v>
@@ -1398,7 +1423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J22" s="4">
         <v>44527</v>
       </c>
@@ -1407,9 +1432,11 @@
       </c>
       <c r="L22" s="7">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2">
         <v>0</v>
@@ -1421,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J23" s="4">
         <v>44528</v>
       </c>
@@ -1430,9 +1457,11 @@
       </c>
       <c r="L23" s="7">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2">
         <v>0</v>
@@ -1444,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J24" s="4">
         <v>44529</v>
       </c>
@@ -1453,9 +1482,11 @@
       </c>
       <c r="L24" s="7">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2">
         <v>0</v>
@@ -1467,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J25" s="4">
         <v>44530</v>
       </c>
@@ -1476,9 +1507,11 @@
       </c>
       <c r="L25" s="7">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2">
         <v>0</v>
@@ -1490,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J26" s="4">
         <v>44531</v>
       </c>
@@ -1499,9 +1532,11 @@
       </c>
       <c r="L26" s="7">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2">
         <v>2</v>
@@ -1513,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J27" s="4">
         <v>44532</v>
       </c>
@@ -1522,9 +1557,11 @@
       </c>
       <c r="L27" s="7">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2">
         <v>2</v>
@@ -1536,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J28" s="4">
         <v>44533</v>
       </c>
@@ -1545,9 +1582,11 @@
       </c>
       <c r="L28" s="7">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="M28" s="2">
+        <v>2</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2">
         <v>3</v>
@@ -1559,7 +1598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J29" s="4">
         <v>44534</v>
       </c>
@@ -1568,9 +1607,11 @@
       </c>
       <c r="L29" s="7">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="M29" s="2">
+        <v>3</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2">
         <v>4</v>
@@ -1582,7 +1623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J30" s="4">
         <v>44535</v>
       </c>
@@ -1591,9 +1632,11 @@
       </c>
       <c r="L30" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2">
         <v>4</v>
@@ -1605,7 +1648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
       <c r="J31" s="4">
         <v>44536</v>
       </c>
@@ -1614,9 +1657,11 @@
       </c>
       <c r="L31" s="7">
         <f t="shared" ref="L31" si="1">L30-SUM(M31:Q31)</f>
-        <v>26</v>
-      </c>
-      <c r="M31" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3">
         <v>2</v>
@@ -1628,11 +1673,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E32" s="5"/>
       <c r="M32" s="1">
         <f>SUM(M7:M31)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" ref="N32:Q32" si="2">SUM(N7:N31)</f>
@@ -1654,14 +1699,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E33" s="5"/>
       <c r="R33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
+      <c r="N34" s="11"/>
       <c r="R34" s="10">
         <f>95/5</f>
         <v>19</v>
@@ -1674,6 +1720,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/project/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/project/Phase 1/Sprint1/Burndown chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Desktop\ES\Projects\SE2122-57672-58175-57957-58210-57911\project\Phase 1\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC9A3C0-7279-4CA7-A708-55D18723F7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC5E2B7-6F14-466C-AFC4-BABBB107AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="14610" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -562,22 +562,22 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>47</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,34 +979,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="10:17" x14ac:dyDescent="0.3">
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="5" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="10:17" x14ac:dyDescent="0.3">
       <c r="L5" s="6"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J7" s="4">
         <v>44512</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J8" s="4">
         <v>44513</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J9" s="4">
         <v>44514</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J10" s="4">
         <v>44515</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J11" s="4">
         <v>44516</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J12" s="4">
         <v>44517</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J13" s="4">
         <v>44518</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J14" s="4">
         <v>44519</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J15" s="4">
         <v>44520</v>
       </c>
@@ -1262,7 +1262,9 @@
       <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J16" s="4">
         <v>44521</v>
       </c>
@@ -1287,7 +1289,9 @@
       <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
@@ -1298,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J17" s="4">
         <v>44522</v>
       </c>
@@ -1312,7 +1316,9 @@
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="2"/>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J18" s="4">
         <v>44523</v>
       </c>
@@ -1337,7 +1343,9 @@
       <c r="M18" s="2">
         <v>3</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
@@ -1348,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J19" s="4">
         <v>44524</v>
       </c>
@@ -1362,7 +1370,9 @@
       <c r="M19" s="2">
         <v>1</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
@@ -1373,7 +1383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J20" s="4">
         <v>44525</v>
       </c>
@@ -1387,7 +1397,9 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J21" s="4">
         <v>44526</v>
       </c>
@@ -1412,7 +1424,9 @@
       <c r="M21" s="2">
         <v>2</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
@@ -1423,7 +1437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J22" s="4">
         <v>44527</v>
       </c>
@@ -1437,7 +1451,9 @@
       <c r="M22" s="2">
         <v>0</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
@@ -1448,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J23" s="4">
         <v>44528</v>
       </c>
@@ -1462,7 +1478,9 @@
       <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
@@ -1473,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J24" s="4">
         <v>44529</v>
       </c>
@@ -1487,7 +1505,9 @@
       <c r="M24" s="2">
         <v>0</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
@@ -1498,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J25" s="4">
         <v>44530</v>
       </c>
@@ -1512,7 +1532,9 @@
       <c r="M25" s="2">
         <v>0</v>
       </c>
-      <c r="N25" s="2"/>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
@@ -1523,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J26" s="4">
         <v>44531</v>
       </c>
@@ -1532,12 +1554,14 @@
       </c>
       <c r="L26" s="7">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
-      <c r="N26" s="2"/>
+      <c r="N26" s="2">
+        <v>4</v>
+      </c>
       <c r="O26" s="2">
         <v>2</v>
       </c>
@@ -1548,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J27" s="4">
         <v>44532</v>
       </c>
@@ -1557,12 +1581,14 @@
       </c>
       <c r="L27" s="7">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M27" s="2">
         <v>2</v>
       </c>
-      <c r="N27" s="2"/>
+      <c r="N27" s="2">
+        <v>3</v>
+      </c>
       <c r="O27" s="2">
         <v>2</v>
       </c>
@@ -1573,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J28" s="4">
         <v>44533</v>
       </c>
@@ -1582,12 +1608,14 @@
       </c>
       <c r="L28" s="7">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M28" s="2">
         <v>2</v>
       </c>
-      <c r="N28" s="2"/>
+      <c r="N28" s="2">
+        <v>5</v>
+      </c>
       <c r="O28" s="2">
         <v>3</v>
       </c>
@@ -1598,7 +1626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J29" s="4">
         <v>44534</v>
       </c>
@@ -1607,12 +1635,14 @@
       </c>
       <c r="L29" s="7">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M29" s="2">
         <v>3</v>
       </c>
-      <c r="N29" s="2"/>
+      <c r="N29" s="2">
+        <v>5</v>
+      </c>
       <c r="O29" s="2">
         <v>4</v>
       </c>
@@ -1623,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J30" s="4">
         <v>44535</v>
       </c>
@@ -1632,12 +1662,14 @@
       </c>
       <c r="L30" s="7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-9</v>
       </c>
       <c r="M30" s="2">
         <v>3</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" s="2">
+        <v>7</v>
+      </c>
       <c r="O30" s="2">
         <v>4</v>
       </c>
@@ -1648,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
       <c r="J31" s="4">
         <v>44536</v>
       </c>
@@ -1657,12 +1689,14 @@
       </c>
       <c r="L31" s="7">
         <f t="shared" ref="L31" si="1">L30-SUM(M31:Q31)</f>
-        <v>7</v>
+        <v>-21</v>
       </c>
       <c r="M31" s="3">
         <v>1</v>
       </c>
-      <c r="N31" s="3"/>
+      <c r="N31" s="3">
+        <v>4</v>
+      </c>
       <c r="O31" s="3">
         <v>2</v>
       </c>
@@ -1673,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E32" s="5"/>
       <c r="M32" s="1">
         <f>SUM(M7:M31)</f>
@@ -1681,7 +1715,7 @@
       </c>
       <c r="N32" s="1">
         <f t="shared" ref="N32:Q32" si="2">SUM(N7:N31)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" si="2"/>
@@ -1699,13 +1733,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E33" s="5"/>
       <c r="R33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E34" s="5"/>
       <c r="N34" s="11"/>
       <c r="R34" s="10">

--- a/project/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/project/Phase 1/Sprint1/Burndown chart.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Desktop\ES\Projects\SE2122-57672-58175-57957-58210-57911\project\Phase 1\Sprint1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC5E2B7-6F14-466C-AFC4-BABBB107AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Day</t>
   </si>
@@ -59,18 +53,12 @@
   <si>
     <t>Pedro Gouveia</t>
   </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>avg per person arround</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,18 +152,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -197,14 +175,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -226,7 +202,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$7:$J$31</c:f>
               <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
+                <c:formatCode>dd/mmm</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44512</c:v>
@@ -313,76 +289,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>53</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -390,8 +366,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2280-469A-8B0C-1BCD6669BC89}"/>
             </c:ext>
@@ -418,7 +393,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$7:$J$31</c:f>
               <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
+                <c:formatCode>dd/mmm</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44512</c:v>
@@ -505,125 +480,113 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>62</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>61</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2280-469A-8B0C-1BCD6669BC89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="97448704"/>
-        <c:axId val="97451008"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="104608512"/>
+        <c:axId val="104611200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97448704"/>
+        <c:axId val="104608512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="dd/mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97451008"/>
+        <c:crossAx val="104611200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97451008"/>
+        <c:axId val="104611200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -646,28 +609,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97448704"/>
+        <c:crossAx val="104608512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -693,7 +653,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -969,44 +929,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.08984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.453125" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="10:17">
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="5" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="10:17">
       <c r="L5" s="6"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="10:17">
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1032,16 +992,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="10:17">
       <c r="J7" s="4">
         <v>44512</v>
       </c>
       <c r="K7" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7">
         <f>$K$7-SUM(M7:Q7)</f>
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1059,16 +1019,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="10:17">
       <c r="J8" s="4">
         <v>44513</v>
       </c>
       <c r="K8" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7">
         <f>L7-SUM(M8:Q8)</f>
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="M8" s="2">
         <v>2</v>
@@ -1086,16 +1046,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="10:17">
       <c r="J9" s="4">
         <v>44514</v>
       </c>
       <c r="K9" s="3">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" ref="L9:L30" si="0">L8-SUM(M9:Q9)</f>
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1113,16 +1073,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="10:17">
       <c r="J10" s="4">
         <v>44515</v>
       </c>
       <c r="K10" s="3">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1140,16 +1100,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="10:17">
       <c r="J11" s="4">
         <v>44516</v>
       </c>
       <c r="K11" s="3">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -1167,16 +1127,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="10:17">
       <c r="J12" s="4">
         <v>44517</v>
       </c>
       <c r="K12" s="3">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -1194,16 +1154,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="10:17">
       <c r="J13" s="4">
         <v>44518</v>
       </c>
       <c r="K13" s="3">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="L13" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -1221,16 +1181,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="10:17">
       <c r="J14" s="4">
         <v>44519</v>
       </c>
       <c r="K14" s="3">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="M14" s="2">
         <v>2</v>
@@ -1239,25 +1199,25 @@
         <v>2</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" s="2">
         <v>2</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="10:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="10:17">
       <c r="J15" s="4">
         <v>44520</v>
       </c>
       <c r="K15" s="3">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="L15" s="7">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -1275,16 +1235,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="10:17">
       <c r="J16" s="4">
         <v>44521</v>
       </c>
       <c r="K16" s="3">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -1302,16 +1262,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:18">
       <c r="J17" s="4">
         <v>44522</v>
       </c>
       <c r="K17" s="3">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -1329,16 +1289,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:18">
       <c r="J18" s="4">
         <v>44523</v>
       </c>
       <c r="K18" s="3">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="L18" s="7">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="M18" s="2">
         <v>3</v>
@@ -1356,16 +1316,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:18">
       <c r="J19" s="4">
         <v>44524</v>
       </c>
       <c r="K19" s="3">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="L19" s="7">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>
@@ -1374,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" s="7">
         <v>2</v>
@@ -1383,16 +1343,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:18">
       <c r="J20" s="4">
         <v>44525</v>
       </c>
       <c r="K20" s="3">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -1410,16 +1370,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:18">
       <c r="J21" s="4">
         <v>44526</v>
       </c>
       <c r="K21" s="3">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L21" s="7">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="M21" s="2">
         <v>2</v>
@@ -1431,22 +1391,22 @@
         <v>0</v>
       </c>
       <c r="P21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:18">
       <c r="J22" s="4">
         <v>44527</v>
       </c>
       <c r="K22" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L22" s="7">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -1464,16 +1424,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:18">
       <c r="J23" s="4">
         <v>44528</v>
       </c>
       <c r="K23" s="3">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L23" s="7">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -1482,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" s="2">
         <v>0</v>
@@ -1491,19 +1451,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:18">
       <c r="J24" s="4">
         <v>44529</v>
       </c>
       <c r="K24" s="3">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L24" s="7">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1512,22 +1472,22 @@
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:18">
       <c r="J25" s="4">
         <v>44530</v>
       </c>
       <c r="K25" s="3">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -1539,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:18">
       <c r="J26" s="4">
         <v>44531</v>
       </c>
       <c r="K26" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -1572,19 +1532,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:18">
       <c r="J27" s="4">
         <v>44532</v>
       </c>
       <c r="K27" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="M27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" s="2">
         <v>3</v>
@@ -1593,22 +1553,22 @@
         <v>2</v>
       </c>
       <c r="P27" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:18">
       <c r="J28" s="4">
         <v>44533</v>
       </c>
       <c r="K28" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L28" s="7">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="M28" s="2">
         <v>2</v>
@@ -1626,16 +1586,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:18">
       <c r="J29" s="4">
         <v>44534</v>
       </c>
       <c r="K29" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L29" s="7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M29" s="2">
         <v>3</v>
@@ -1653,16 +1613,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:18">
       <c r="J30" s="4">
         <v>44535</v>
       </c>
       <c r="K30" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L30" s="7">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="M30" s="2">
         <v>3</v>
@@ -1680,7 +1640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:18">
       <c r="J31" s="4">
         <v>44536</v>
       </c>
@@ -1689,10 +1649,10 @@
       </c>
       <c r="L31" s="7">
         <f t="shared" ref="L31" si="1">L30-SUM(M31:Q31)</f>
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" s="3">
         <v>4</v>
@@ -1707,45 +1667,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:18">
       <c r="E32" s="5"/>
-      <c r="M32" s="1">
-        <f>SUM(M7:M31)</f>
-        <v>21</v>
-      </c>
-      <c r="N32" s="1">
-        <f t="shared" ref="N32:Q32" si="2">SUM(N7:N31)</f>
-        <v>32</v>
-      </c>
-      <c r="O32" s="1">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="P32" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="Q32" s="1">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="5:18">
       <c r="E33" s="5"/>
-      <c r="R33" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="5:18">
       <c r="E34" s="5"/>
       <c r="N34" s="11"/>
-      <c r="R34" s="10">
-        <f>95/5</f>
-        <v>19</v>
-      </c>
+      <c r="R34" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L15">
